--- a/Projects/231009_lhs300/results/Queries_231009_lhs300.xlsx
+++ b/Projects/231009_lhs300/results/Queries_231009_lhs300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,1367 +542,1367 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9979946724255901</v>
+        <v>0.9735349304016681</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8981600655522858</v>
+        <v>0.0004933480649687016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5330855698063144</v>
+        <v>0.8210240239713916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5561802316076873</v>
+        <v>0.5541855265213157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6034760719429427</v>
+        <v>0.8300409466608434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8600289480295958</v>
+        <v>0.1431261838001444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2105280190828525</v>
+        <v>0.2633877507414611</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004279624554664732</v>
+        <v>4.0217844557417e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.594816197879605e-05</v>
+        <v>0.0007822528334857073</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002278871841727902</v>
+        <v>0.0002520152830870123</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9971710250019229</v>
+        <v>0.784551142065443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9489807378360333</v>
+        <v>0.9422263116322287</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03409995057371275</v>
+        <v>0.03279997628718252</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999543699269233</v>
+        <v>0.01433095534755141</v>
       </c>
       <c r="O2" t="n">
-        <v>0.693513596059527</v>
+        <v>0.6934567135424379</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4004779297711485</v>
+        <v>0.8214346280176658</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001701748760573612</v>
+        <v>0.002379614624179562</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001671986170862513</v>
+        <v>0.001944019915805355</v>
       </c>
       <c r="S2" t="n">
-        <v>85.68691978197609</v>
+        <v>83.88840279192846</v>
       </c>
       <c r="T2" t="n">
-        <v>78.71219402201888</v>
+        <v>78.0264357920742</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1040353897717277</v>
+        <v>0.1039751966648411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9606597566007624</v>
+        <v>0.9668307518651292</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8955998061284658</v>
+        <v>0.3973366548893248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09251822469951118</v>
+        <v>0.02213761695041633</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8135553246325058</v>
+        <v>0.7966485977319264</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9473556079482706</v>
+        <v>0.5634158102422976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5060619780912124</v>
+        <v>0.3494627037368025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4475706308150846</v>
+        <v>0.5032065757145933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002174955836774278</v>
+        <v>0.03747944906084569</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006344375979492911</v>
+        <v>0.0005069847610583537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005136280696380063</v>
+        <v>0.0004855939717297131</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9680810328591472</v>
+        <v>0.1839459344349046</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9684656876859784</v>
+        <v>0.9617748061017446</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006812293691062753</v>
+        <v>0.0281351869024054</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1939359248896979</v>
+        <v>0.7203440077120192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6919471841881627</v>
+        <v>0.9980002317507957</v>
       </c>
       <c r="P3" t="n">
-        <v>0.511015970701834</v>
+        <v>0.8569490571245088</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002421307704670077</v>
+        <v>0.002025505635783448</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001791241574687971</v>
+        <v>0.001678905708370849</v>
       </c>
       <c r="S3" t="n">
-        <v>82.88401133954234</v>
+        <v>84.58578915689797</v>
       </c>
       <c r="T3" t="n">
-        <v>78.30111110970472</v>
+        <v>78.65430912978299</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1042258480245288</v>
+        <v>0.1053390190418198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9798541828899624</v>
+        <v>0.9790863374792436</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007163193696425714</v>
+        <v>0.05454738579535256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01892272639767654</v>
+        <v>0.8948585161600462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8661751995954086</v>
+        <v>0.8351784758424757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04073205082791509</v>
+        <v>0.1070405626559377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1370006481266453</v>
+        <v>0.314235552931762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2830536136756073</v>
+        <v>0.2389371003887833</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003552683469063113</v>
+        <v>4.094688645396583e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.164161233339486e-05</v>
+        <v>0.0004680852745053823</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005011721274756865</v>
+        <v>0.0003989781974375582</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1338486280632462</v>
+        <v>0.02761665064917129</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2133147568924385</v>
+        <v>0.5728095151450463</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08250957036101961</v>
+        <v>0.001261112784405443</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07307081429529733</v>
+        <v>0.01219226281898628</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9703303564468755</v>
+        <v>0.06627001953922995</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04904661143641362</v>
+        <v>0.8587688240912715</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002602117485983694</v>
+        <v>0.002619393166512625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001573046689338491</v>
+        <v>0.001681036172734915</v>
       </c>
       <c r="S4" t="n">
-        <v>84.79064544628984</v>
+        <v>85.12459897263157</v>
       </c>
       <c r="T4" t="n">
-        <v>78.00078978692659</v>
+        <v>77.96390583916985</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1039671519731079</v>
+        <v>0.1039688394855485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9677491740844151</v>
+        <v>0.9795006292777001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2099459120443787</v>
+        <v>0.008563997141771215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8948585161600462</v>
+        <v>0.1502070704245796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3114436320815979</v>
+        <v>0.5969895166922169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5959726321048648</v>
+        <v>0.6321947144674046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3140034186176832</v>
+        <v>0.8375989332606444</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1816562876286497</v>
+        <v>0.5850157150474438</v>
       </c>
       <c r="H5" t="n">
-        <v>3.809189110708355e-05</v>
+        <v>0.0001303671926203988</v>
       </c>
       <c r="I5" t="n">
-        <v>6.797387633941483e-05</v>
+        <v>0.0004038427094933622</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001063379801024937</v>
+        <v>0.0002367631847049459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.968830165963523</v>
+        <v>0.1219632483085336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.610462702089562</v>
+        <v>0.1190918733564195</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006879077256054328</v>
+        <v>0.02229078968293931</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04367110705201703</v>
+        <v>0.01395034671197215</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7044260679500598</v>
+        <v>0.6973429186630898</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8125179503000592</v>
+        <v>0.03884164670726539</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002568175453045644</v>
+        <v>0.002439492007081114</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001738139605894239</v>
+        <v>0.001729353134696289</v>
       </c>
       <c r="S5" t="n">
-        <v>84.1534386948248</v>
+        <v>83.57426884650252</v>
       </c>
       <c r="T5" t="n">
-        <v>77.97637382313114</v>
+        <v>77.98341100919367</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1039437656191249</v>
+        <v>0.1039638591834792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9995734061782965</v>
+        <v>0.9209654876084548</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8983526891176251</v>
+        <v>0.02462019278000767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5507451115536031</v>
+        <v>0.8947987940982268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4757915892334882</v>
+        <v>0.9533816138163299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5835649406661603</v>
+        <v>0.9901140237187404</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3979103034750253</v>
+        <v>0.3484155469542891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5547949331363441</v>
+        <v>0.2394153399200159</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07225740086437013</v>
+        <v>0.004103134018283267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000117465271983041</v>
+        <v>0.004856498728463039</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003463883360115719</v>
+        <v>0.0001896765190733953</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9812053456263033</v>
+        <v>0.1200358573662815</v>
       </c>
       <c r="L6" t="n">
-        <v>0.944830688506789</v>
+        <v>0.7021107318103891</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2039692685779309</v>
+        <v>0.007248886071125058</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9641836954719806</v>
+        <v>0.189668371839081</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2400971562554815</v>
+        <v>0.7126049947674712</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9623385018710982</v>
+        <v>0.7854272594764551</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001641098152850735</v>
+        <v>0.002450259663483019</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001650997197262067</v>
+        <v>0.002146679865426433</v>
       </c>
       <c r="S6" t="n">
-        <v>86.03734779496398</v>
+        <v>82.41823706461081</v>
       </c>
       <c r="T6" t="n">
-        <v>79.18800279219529</v>
+        <v>78.2179482401334</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1067056258706509</v>
+        <v>0.1042696428024971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9808532372810108</v>
+        <v>0.9222391956280189</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1494383133910072</v>
+        <v>0.6433751981580145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8986987620779372</v>
+        <v>0.153473067502238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3679057239311467</v>
+        <v>0.3102116869898799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1829890472184471</v>
+        <v>0.8276789395137265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.457377135895202</v>
+        <v>0.7549058795407079</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2337718484874825</v>
+        <v>0.5895716514378161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000865118200073229</v>
+        <v>0.001363388993830349</v>
       </c>
       <c r="I7" t="n">
-        <v>4.588415298406327e-05</v>
+        <v>0.004566307835469454</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000475665550661304</v>
+        <v>0.0002266703127211578</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1638661051594896</v>
+        <v>0.9810127981935181</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9639791374978209</v>
+        <v>0.990395768668378</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02555054414117464</v>
+        <v>0.1493876437844732</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9575823683068108</v>
+        <v>0.9994412530445664</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6325229740192313</v>
+        <v>0.6730130697871992</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8731030864858845</v>
+        <v>0.9151843559879885</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001887878568717562</v>
+        <v>0.001644351075773693</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001634890792093902</v>
+        <v>0.001657444425264351</v>
       </c>
       <c r="S7" t="n">
-        <v>86.05189935028601</v>
+        <v>86.65423891211076</v>
       </c>
       <c r="T7" t="n">
-        <v>78.26305782715596</v>
+        <v>78.92736158263568</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1039864412091027</v>
+        <v>0.1041604977534546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9374644728362026</v>
+        <v>0.9209654876084548</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05461845668791226</v>
+        <v>0.02462019278000767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8948835843500258</v>
+        <v>0.8947987940982268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8388231618967916</v>
+        <v>0.9535339378681679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9147714712965772</v>
+        <v>0.9901713421517302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3140034186176832</v>
+        <v>0.2844531941660478</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2538806857011258</v>
+        <v>0.2394153399200159</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00414353467539379</v>
+        <v>0.004103134018283267</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004595931737281942</v>
+        <v>0.004856498728463039</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00346005890098237</v>
+        <v>0.0001896765190733953</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2478601849408345</v>
+        <v>0.1188958299720563</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5928233093444082</v>
+        <v>0.6495088472988479</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08203855356826673</v>
+        <v>0.006886047106194226</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02816125620285937</v>
+        <v>0.2066419155809857</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9923049510159929</v>
+        <v>0.7126049947674712</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9069946832896861</v>
+        <v>0.7854272594764551</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002372634599697596</v>
+        <v>0.002449455337420646</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002073585645250749</v>
+        <v>0.002145815516026967</v>
       </c>
       <c r="S8" t="n">
-        <v>83.09235348975095</v>
+        <v>82.37912702351986</v>
       </c>
       <c r="T8" t="n">
-        <v>78.15190823545794</v>
+        <v>78.23336370182631</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1042300113249977</v>
+        <v>0.1042696363250629</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9698763902267445</v>
+        <v>0.9798541828899624</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2133259105015234</v>
+        <v>0.007163193696425714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1174704557001133</v>
+        <v>0.01892272639767654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5989366609576503</v>
+        <v>0.8661751995954086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7894666072571935</v>
+        <v>0.04073205082791509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2063899850962022</v>
+        <v>0.1370006481266453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.325995246349878</v>
+        <v>0.2830536136756073</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003736407420036406</v>
+        <v>0.0003552683469063113</v>
       </c>
       <c r="I9" t="n">
-        <v>7.535381006632501e-05</v>
+        <v>1.164161233339486e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006035628846263287</v>
+        <v>0.0005011721274756865</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1777177514383724</v>
+        <v>0.1338486280632462</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6479867854583526</v>
+        <v>0.2133147568924385</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01365597597677043</v>
+        <v>0.08250957036101961</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7034575374287551</v>
+        <v>0.07307081429529733</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6001007711105995</v>
+        <v>0.9703303564468755</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5742096261331693</v>
+        <v>0.04904661143641362</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001973561617480751</v>
+        <v>0.002602117485983694</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001757049800001819</v>
+        <v>0.001573046689338491</v>
       </c>
       <c r="S9" t="n">
-        <v>84.43746929156482</v>
+        <v>84.79064544628984</v>
       </c>
       <c r="T9" t="n">
-        <v>78.59856361957409</v>
+        <v>78.00078978692659</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1042951027803287</v>
+        <v>0.1039671519731079</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.998220078122982</v>
+        <v>0.9844700173783534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8874809397165621</v>
+        <v>0.04267982720535595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5541228594728265</v>
+        <v>0.8986643442595907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2352896495274781</v>
+        <v>0.6026883324707626</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6187436724758471</v>
+        <v>0.7865600154349477</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03803139774802544</v>
+        <v>0.3797754044586357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5527998511531856</v>
+        <v>0.2354716837484504</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004039858659134813</v>
+        <v>0.004132537727488179</v>
       </c>
       <c r="I10" t="n">
-        <v>7.078136204295872e-05</v>
+        <v>3.736654770945768e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>8.494109079475809e-05</v>
+        <v>0.0002161452958332665</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1830183124782608</v>
+        <v>0.1549894452833734</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9423969979950589</v>
+        <v>0.6460843802334857</v>
       </c>
       <c r="M10" t="n">
-        <v>0.372111507368351</v>
+        <v>0.005428684000413231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9809640458609</v>
+        <v>0.03760533473113879</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3656175888641424</v>
+        <v>0.9956241289142513</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2848068159613779</v>
+        <v>0.8157537906473027</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001564782719146185</v>
+        <v>0.002406713668609736</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001591449239447543</v>
+        <v>0.001933893140667203</v>
       </c>
       <c r="S10" t="n">
-        <v>86.77635652923168</v>
+        <v>83.31052298730552</v>
       </c>
       <c r="T10" t="n">
-        <v>78.99103708295499</v>
+        <v>77.97645360180691</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1040890463025552</v>
+        <v>0.1040957805811733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9245254153336698</v>
+        <v>0.998220078122982</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01258446119569404</v>
+        <v>0.8874809397165621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04384822159656634</v>
+        <v>0.5541228594728265</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9559229180294719</v>
+        <v>0.2352896495274781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1747396600024197</v>
+        <v>0.6187436724758471</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2837231072234345</v>
+        <v>0.03803139774802544</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2243247135935068</v>
+        <v>0.5527998511531856</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000579307123694194</v>
+        <v>0.004039858659134813</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003334295504216741</v>
+        <v>7.078136204295872e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003543275195700606</v>
+        <v>8.494109079475809e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3015193424863175</v>
+        <v>0.1830183124782608</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7729475113752384</v>
+        <v>0.9423969979950589</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001329031962903415</v>
+        <v>0.372111507368351</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2132684168763811</v>
+        <v>0.9809640458609</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9992958998122914</v>
+        <v>0.3656175888641424</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8914088154351856</v>
+        <v>0.2848068159613779</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002648902641723184</v>
+        <v>0.001564782719146185</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001627072626054333</v>
+        <v>0.001591449239447543</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2425345784867</v>
+        <v>86.77635652923168</v>
       </c>
       <c r="T11" t="n">
-        <v>78.01132380645444</v>
+        <v>78.99103708295499</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1039817180330111</v>
+        <v>0.1040890463025552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9677489018424995</v>
+        <v>0.9678519884004899</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04130250917719708</v>
+        <v>0.3870462977184406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02701827133030157</v>
+        <v>0.07471429789896851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3659289900015723</v>
+        <v>0.6711980519729586</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4970679661807114</v>
+        <v>0.8713841821769283</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06006826545855274</v>
+        <v>0.666372865243024</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01516834860790564</v>
+        <v>0.4563683031817989</v>
       </c>
       <c r="H12" t="n">
-        <v>7.246831025804716e-05</v>
+        <v>0.001952312319963399</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005707705986958117</v>
+        <v>0.06628333055382768</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002171275621439922</v>
+        <v>0.0002850982286818691</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01088175900394445</v>
+        <v>0.1695786643750205</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9673911778621218</v>
+        <v>0.9538056409261305</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08254823482355225</v>
+        <v>0.003546848980002229</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9988730132362194</v>
+        <v>0.7175768386069269</v>
       </c>
       <c r="O12" t="n">
-        <v>0.266041694669375</v>
+        <v>0.2935941193779716</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01156386834213902</v>
+        <v>0.4600163363892206</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001673662585605308</v>
+        <v>0.001994937927102455</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001623780534845315</v>
+        <v>0.001771378661160814</v>
       </c>
       <c r="S12" t="n">
-        <v>85.9268167394515</v>
+        <v>84.30544937023626</v>
       </c>
       <c r="T12" t="n">
-        <v>78.60091307624678</v>
+        <v>78.88533658339924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1040384893648387</v>
+        <v>0.1064357010461128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9814292957247097</v>
+        <v>0.998220078122982</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00896639863540212</v>
+        <v>0.8874809397165621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.018915142822596</v>
+        <v>0.5541228594728265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2935091272083806</v>
+        <v>0.2352896495274781</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05860887803744225</v>
+        <v>0.5946630566805521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3825472855959959</v>
+        <v>0.7026928168049432</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01121307488912994</v>
+        <v>0.5527998511531856</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00406389246565819</v>
+        <v>0.004039858659134813</v>
       </c>
       <c r="I13" t="n">
-        <v>2.83898707424379e-05</v>
+        <v>8.494539492275354e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003499513969456323</v>
+        <v>0.0001032920174867479</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8701211404608418</v>
+        <v>0.1620988742557291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2178978037108102</v>
+        <v>0.9597105151398697</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08487299335190585</v>
+        <v>0.4108490995584982</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2765392644447121</v>
+        <v>0.9808139520510528</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9561205912851722</v>
+        <v>0.6409867196461173</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03257332651972158</v>
+        <v>0.2848068159613779</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002936934170802818</v>
+        <v>0.001562386019872581</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00156381871023628</v>
+        <v>0.001597207027607759</v>
       </c>
       <c r="S13" t="n">
-        <v>84.85309028823987</v>
+        <v>87.05579041731872</v>
       </c>
       <c r="T13" t="n">
-        <v>78.10213634952902</v>
+        <v>78.99445801363595</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1042126185691055</v>
+        <v>0.1040902001307376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9189603932994396</v>
+        <v>0.9116618885998021</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04340389559481864</v>
+        <v>0.02563585707709228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8988710070461466</v>
+        <v>0.018915142822596</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9006411601113483</v>
+        <v>0.2836798067114689</v>
       </c>
       <c r="E14" t="n">
-        <v>0.990952933764894</v>
+        <v>0.01796602213381271</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2866648707107417</v>
+        <v>0.1355354901562859</v>
       </c>
       <c r="G14" t="n">
-        <v>0.235965295614423</v>
+        <v>0.002877687165640346</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001913902107551387</v>
+        <v>1.603801772127053e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002051441520445973</v>
+        <v>0.0001231735592380013</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01200655421156825</v>
+        <v>0.00034670828891887</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9423840862590587</v>
+        <v>0.8701211404608418</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6212487343890712</v>
+        <v>0.09935066446098177</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01175174050771381</v>
+        <v>0.03644935969664696</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3010225065689536</v>
+        <v>0.2119969998052347</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9610708271721802</v>
+        <v>0.6330843613712867</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6435500647246856</v>
+        <v>0.02202478569298526</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002415408219748039</v>
+        <v>0.003020323491055867</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002126784488705023</v>
+        <v>0.001562401127588024</v>
       </c>
       <c r="S14" t="n">
-        <v>82.53413466465021</v>
+        <v>84.81925366084543</v>
       </c>
       <c r="T14" t="n">
-        <v>78.33235082099068</v>
+        <v>78.0591275905478</v>
       </c>
       <c r="U14" t="n">
-        <v>0.104451257667757</v>
+        <v>0.1039534105187498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9881214634363964</v>
+        <v>0.9846199345174178</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008674834884717798</v>
+        <v>0.2377427702445622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03611814594740488</v>
+        <v>0.03138233902656207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5166449625192245</v>
+        <v>0.31245264377878</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004037762869522576</v>
+        <v>0.5842910906949335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1527827143691312</v>
+        <v>0.331162740124167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01736820608934142</v>
+        <v>0.2405444226725796</v>
       </c>
       <c r="H15" t="n">
-        <v>6.52404853681646e-05</v>
+        <v>0.002080176092411738</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004334076135152901</v>
+        <v>0.001728753411916936</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002547460736127498</v>
+        <v>0.01604878652158439</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9399202424296543</v>
+        <v>0.2528180024061336</v>
       </c>
       <c r="L15" t="n">
-        <v>0.75001620803234</v>
+        <v>0.8458821018195541</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01135608708821603</v>
+        <v>0.002068078191016176</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9856269745890105</v>
+        <v>0.9796873705292115</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06823340324025673</v>
+        <v>0.9655844322541969</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01645198071300065</v>
+        <v>0.9781911553063669</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00206926535735856</v>
+        <v>0.001729215081152563</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001545217051773529</v>
+        <v>0.001632384866771248</v>
       </c>
       <c r="S15" t="n">
-        <v>85.7999219987468</v>
+        <v>86.34864267026634</v>
       </c>
       <c r="T15" t="n">
-        <v>78.2798154530828</v>
+        <v>78.58380395675199</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1039633573231372</v>
+        <v>0.1046604359872201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9209654876084548</v>
+        <v>0.966330707028338</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02462019278000767</v>
+        <v>0.00086591205978063</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8947987940982268</v>
+        <v>0.03541891236420074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9535339378681679</v>
+        <v>0.1820528096932736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9901713421517302</v>
+        <v>0.006397122848266597</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2844531941660478</v>
+        <v>0.06155207497254498</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2394153399200159</v>
+        <v>0.01604600350701799</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004103134018283267</v>
+        <v>0.00206154772883123</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004856498728463039</v>
+        <v>0.01254589632649451</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001896765190733953</v>
+        <v>6.660257567389524e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1188958299720563</v>
+        <v>0.03937654368857184</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6495088472988479</v>
+        <v>0.09241908827450696</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006886047106194226</v>
+        <v>0.420206946819497</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2066419155809857</v>
+        <v>0.9856269745890105</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7126049947674712</v>
+        <v>0.2652193762188582</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7854272594764551</v>
+        <v>0.009757844591512098</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002449455337420646</v>
+        <v>0.001960422771267381</v>
       </c>
       <c r="R16" t="n">
-        <v>0.002145815516026967</v>
+        <v>0.001553157971455969</v>
       </c>
       <c r="S16" t="n">
-        <v>82.37912702351986</v>
+        <v>86.87771303037145</v>
       </c>
       <c r="T16" t="n">
-        <v>78.23336370182631</v>
+        <v>78.445590768063</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1042696363250629</v>
+        <v>0.1044707195414565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.973587345377351</v>
+        <v>0.9978889640946956</v>
       </c>
       <c r="B17" t="n">
-        <v>0.005805820180785848</v>
+        <v>0.04411470121687461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005129438388972883</v>
+        <v>0.0764646170343839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5542245033105636</v>
+        <v>0.6711980519729586</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8300409466608434</v>
+        <v>0.9178068063585729</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1175323600980451</v>
+        <v>0.666372865243024</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4585086418930285</v>
+        <v>0.447511665810188</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0004284266594889479</v>
+        <v>0.005150215174680675</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01264408249786779</v>
+        <v>0.0003093459247011168</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002520152830870123</v>
+        <v>0.006035628846263287</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7554364467509653</v>
+        <v>0.9510506970237504</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6683975610486609</v>
+        <v>0.9538058111144534</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02135561950529455</v>
+        <v>0.003546848980002229</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4884885657599481</v>
+        <v>0.7177601573485186</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6934567135424379</v>
+        <v>0.6470179403467451</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4567122378396383</v>
+        <v>0.4600163363892206</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.002264015918706713</v>
+        <v>0.001930328314514354</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001799156312368475</v>
+        <v>0.00185800914431249</v>
       </c>
       <c r="S17" t="n">
-        <v>83.66407260283992</v>
+        <v>84.30943335436568</v>
       </c>
       <c r="T17" t="n">
-        <v>78.4253138111572</v>
+        <v>78.63063155572783</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1044215242730741</v>
+        <v>0.1043555054181325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9679037446150567</v>
+        <v>0.4436840582623841</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3973366548893248</v>
+        <v>0.008626343490993104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02213761695041633</v>
+        <v>0.4936807502998645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8168539555152428</v>
+        <v>0.8150619044081875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7947412440906764</v>
+        <v>0.9956282557057531</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09470119376370997</v>
+        <v>0.3444809202674208</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4010483536728717</v>
+        <v>0.1700926561098542</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0006121428663378829</v>
+        <v>2.37230196151704e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004102359842651643</v>
+        <v>0.001149538254999658</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002613112667393671</v>
+        <v>0.0004340118537600185</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1839459344349046</v>
+        <v>0.03133008640952306</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8669816019646575</v>
+        <v>0.7026838068363691</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000815926805541203</v>
+        <v>0.0002340522375371035</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5618421098696403</v>
+        <v>0.190667710935647</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0478885520239552</v>
+        <v>0.6387896424289934</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6012693485836503</v>
+        <v>0.7939052252900695</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002184556338200408</v>
+        <v>0.002545966308397192</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001749198669567479</v>
+        <v>0.002165019768127374</v>
       </c>
       <c r="S18" t="n">
-        <v>83.26097205785561</v>
+        <v>82.46441883697723</v>
       </c>
       <c r="T18" t="n">
-        <v>78.52562501820816</v>
+        <v>78.17029137576</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1039827037295301</v>
+        <v>0.1039943388912408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9181171553438983</v>
+        <v>0.9735349304016681</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0003463257278696376</v>
+        <v>0.0004933480649687016</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4936807502998645</v>
+        <v>0.005129438388972883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8160936651892647</v>
+        <v>0.5545095701204608</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8006671839559354</v>
+        <v>0.8300409466608434</v>
       </c>
       <c r="F19" t="n">
-        <v>0.351196695929291</v>
+        <v>0.1439622925332868</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5968183461754173</v>
+        <v>0.572672428078717</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001313108181953971</v>
+        <v>0.0004284266594889479</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001172485771869615</v>
+        <v>0.01192378528306821</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002595198492324323</v>
+        <v>0.0002520152830870123</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03133008640952306</v>
+        <v>0.7554364467509653</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7058250611490343</v>
+        <v>0.9452093522292366</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002340522375371035</v>
+        <v>0.03279997628718252</v>
       </c>
       <c r="N19" t="n">
-        <v>0.190667710935647</v>
+        <v>0.5433615389376345</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6423005865437349</v>
+        <v>0.6934567135424379</v>
       </c>
       <c r="P19" t="n">
-        <v>0.006370180097098277</v>
+        <v>0.4567122378396383</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002454426284110018</v>
+        <v>0.002164239403223838</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001896539316113849</v>
+        <v>0.001799206712426303</v>
       </c>
       <c r="S19" t="n">
-        <v>82.68677314016391</v>
+        <v>83.98797635857923</v>
       </c>
       <c r="T19" t="n">
-        <v>78.12007721183751</v>
+        <v>78.46873790332063</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1039928806236478</v>
+        <v>0.1043953109414745</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9840265637180935</v>
+        <v>0.9677489018424995</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01667401387788382</v>
+        <v>0.04130250917719708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4512436744487576</v>
+        <v>0.02701827133030157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9154493152831851</v>
+        <v>0.3659289900015723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7948468312943053</v>
+        <v>0.4970679661807114</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8063924690178785</v>
+        <v>0.06006826545855274</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2230127861267106</v>
+        <v>0.01516834860790564</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004022234627605257</v>
+        <v>7.246831025804716e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01246638587183924</v>
+        <v>0.0005707705986958117</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002261344334170353</v>
+        <v>0.002171275621439922</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1193817127059255</v>
+        <v>0.01088175900394445</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6493352947234735</v>
+        <v>0.9673911778621218</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000211776108067975</v>
+        <v>0.08254823482355225</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2480826592381941</v>
+        <v>0.9988730132362194</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7129233179896969</v>
+        <v>0.266041694669375</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01179276689633302</v>
+        <v>0.01156386834213902</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.002451067303617869</v>
+        <v>0.001673662585605308</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001886582584000646</v>
+        <v>0.001623780534845315</v>
       </c>
       <c r="S20" t="n">
-        <v>82.59162979092062</v>
+        <v>85.9268167394515</v>
       </c>
       <c r="T20" t="n">
-        <v>78.24432722941303</v>
+        <v>78.60091307624678</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1046203282774881</v>
+        <v>0.1040384893648387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9222391956280189</v>
+        <v>0.9780902690324144</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6319672944171998</v>
+        <v>0.02978791038498178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.153473067502238</v>
+        <v>0.4633189592381776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3102116869898799</v>
+        <v>0.5330848762792232</v>
       </c>
       <c r="E21" t="n">
-        <v>0.633965880304633</v>
+        <v>0.8284789594354206</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7549058795407079</v>
+        <v>0.4298094184326931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5895716514378161</v>
+        <v>0.4487185910770196</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001347160940378472</v>
+        <v>0.003844219846189861</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004566307835469454</v>
+        <v>0.0001053432245309901</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002266703127211578</v>
+        <v>0.001340714781751828</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9810127981935181</v>
+        <v>0.9567612747276766</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9647090862032884</v>
+        <v>0.9445925134041233</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2531396550260697</v>
+        <v>0.01362000365395397</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9994412530445664</v>
+        <v>0.521860641214911</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06862118497304655</v>
+        <v>0.5999634506325304</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9409664497595779</v>
+        <v>0.2449290399364907</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001590699450276789</v>
+        <v>0.002193383304708705</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001608284281269784</v>
+        <v>0.001857539373385474</v>
       </c>
       <c r="S21" t="n">
-        <v>86.28512257591946</v>
+        <v>83.8520742735512</v>
       </c>
       <c r="T21" t="n">
-        <v>78.95244021891455</v>
+        <v>78.38964572899216</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1041599153476257</v>
+        <v>0.1041290410796289</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9695703217374509</v>
+        <v>0.9790807436131918</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004565746450859422</v>
+        <v>0.05282445918993456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007763461451248066</v>
+        <v>0.4548640822362976</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5335519107057369</v>
+        <v>0.5330848762792232</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1390572894363091</v>
+        <v>0.5620536136749616</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2718043612798705</v>
+        <v>0.3194157305896707</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2359034960409455</v>
+        <v>0.5018416624780523</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0003174603596858413</v>
+        <v>0.003905229772587993</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002920203240850366</v>
+        <v>2.36964646493804e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>6.102416695001611e-05</v>
+        <v>5.28641044196909e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06760439167382015</v>
+        <v>0.8696423640583895</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6560996748793937</v>
+        <v>0.9388815393188235</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004034988184435616</v>
+        <v>0.01038840123738069</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02500579906625572</v>
+        <v>0.8677512843337977</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03185154314214395</v>
+        <v>0.03570594248496828</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3858957569906334</v>
+        <v>0.234193358905302</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002733409972896996</v>
+        <v>0.001786803000145682</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001570243511008024</v>
+        <v>0.00170829955216202</v>
       </c>
       <c r="S22" t="n">
-        <v>85.22455307160334</v>
+        <v>84.94907381588321</v>
       </c>
       <c r="T22" t="n">
-        <v>77.9917359836291</v>
+        <v>78.53708561218143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1039601231120445</v>
+        <v>0.1040812888709504</v>
       </c>
     </row>
     <row r="23">
@@ -1910,7 +1910,7 @@
         <v>0.9735349304016681</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006528726829260756</v>
+        <v>0.0004933480649687016</v>
       </c>
       <c r="C23" t="n">
         <v>0.005129438388972883</v>
@@ -1919,7 +1919,7 @@
         <v>0.3744786245479148</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6363278871442389</v>
+        <v>0.8300409466608434</v>
       </c>
       <c r="F23" t="n">
         <v>0.1439622925332868</v>
@@ -1928,19 +1928,19 @@
         <v>0.5937958895694807</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0003098416820823049</v>
+        <v>0.0003260557292182229</v>
       </c>
       <c r="I23" t="n">
         <v>0.01192378528306821</v>
       </c>
       <c r="J23" t="n">
-        <v>8.442263197812913e-05</v>
+        <v>0.0002520152830870123</v>
       </c>
       <c r="K23" t="n">
         <v>0.7554364467509653</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6019660979077126</v>
+        <v>0.6347550959326891</v>
       </c>
       <c r="M23" t="n">
         <v>0.01208423454130315</v>
@@ -1949,545 +1949,2495 @@
         <v>0.5433615389376345</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0730561543770783</v>
+        <v>0.6867032549336749</v>
       </c>
       <c r="P23" t="n">
         <v>0.4556841813071296</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00230875800003803</v>
+        <v>0.002218891097936868</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001682795210076758</v>
+        <v>0.001778173084162038</v>
       </c>
       <c r="S23" t="n">
-        <v>84.53174979767888</v>
+        <v>84.38947196582367</v>
       </c>
       <c r="T23" t="n">
-        <v>78.40329013349196</v>
+        <v>78.4345244413894</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1043848405914217</v>
+        <v>0.1043915495235578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.998220078122982</v>
+        <v>0.9646392326472416</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8722059978289198</v>
+        <v>0.1693691766807434</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009011476119410444</v>
+        <v>0.1174704557001133</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3747040662764717</v>
+        <v>0.5989366609576503</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6187436724758471</v>
+        <v>0.5860459715056523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05131092217900157</v>
+        <v>0.2038322686752286</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5527998511531856</v>
+        <v>0.3301449814092038</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004039858659134813</v>
+        <v>0.003736407420036406</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002624263006185089</v>
+        <v>7.896634788234883e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>8.494109079475809e-05</v>
+        <v>0.03506950702267541</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2543063147704462</v>
+        <v>0.1758597973936339</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9332556305269021</v>
+        <v>0.6480083088596813</v>
       </c>
       <c r="M24" t="n">
-        <v>0.372111507368351</v>
+        <v>0.01353229671560923</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9809640458609</v>
+        <v>0.6796226567254441</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3656175888641424</v>
+        <v>0.2166659857690604</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2848068159613779</v>
+        <v>0.5700924004162433</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.001573872307955866</v>
+        <v>0.002080247527294281</v>
       </c>
       <c r="R24" t="n">
-        <v>0.00158197636832083</v>
+        <v>0.001676685667974808</v>
       </c>
       <c r="S24" t="n">
-        <v>86.52210915172193</v>
+        <v>84.48271869589524</v>
       </c>
       <c r="T24" t="n">
-        <v>79.09333837760633</v>
+        <v>78.63131288456363</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1040959222398444</v>
+        <v>0.1053525839156872</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9677491740844151</v>
+        <v>0.9779829275017328</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06141255044072871</v>
+        <v>0.02978791038498178</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8948585161600462</v>
+        <v>0.4633189592381776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5737642667418485</v>
+        <v>0.5330848762792232</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05951788931608759</v>
+        <v>0.8284700925681845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3429450673365453</v>
+        <v>0.4298094184326931</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2375393930950447</v>
+        <v>0.4487185910770196</v>
       </c>
       <c r="H25" t="n">
-        <v>1.324720947015902e-05</v>
+        <v>0.003844219846189861</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004457303616035602</v>
+        <v>0.0001053432245309901</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003909898047985011</v>
+        <v>0.001340714781751828</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03504998088758182</v>
+        <v>0.2019791777534252</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5762516770717276</v>
+        <v>0.94435071886164</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00146923873750842</v>
+        <v>0.01108401452262228</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05764776061668314</v>
+        <v>0.5070979039771097</v>
       </c>
       <c r="O25" t="n">
-        <v>0.992263380263504</v>
+        <v>0.6002094761614181</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3924517361150976</v>
+        <v>0.2449290399364907</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002781522528503385</v>
+        <v>0.002214813457102102</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001640731020763255</v>
+        <v>0.001857885671231061</v>
       </c>
       <c r="S25" t="n">
-        <v>84.94609394833692</v>
+        <v>83.79829960072355</v>
       </c>
       <c r="T25" t="n">
-        <v>77.91551525577151</v>
+        <v>78.37420478585457</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1039666808101718</v>
+        <v>0.1041289182900054</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9790863374792436</v>
+        <v>0.9823427338033641</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05454738579535256</v>
+        <v>0.1408191448352936</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8948585161600462</v>
+        <v>0.8988710070461466</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8351784758424757</v>
+        <v>0.8543974379578644</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1070405626559377</v>
+        <v>0.989136768001624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.314235552931762</v>
+        <v>0.1251366365050258</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2389371003887833</v>
+        <v>0.2341023862479898</v>
       </c>
       <c r="H26" t="n">
-        <v>4.094688645396583e-05</v>
+        <v>0.0001335262022743567</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004680852745053823</v>
+        <v>3.57376963201929e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003989781974375582</v>
+        <v>0.0002133980536089957</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02761665064917129</v>
+        <v>0.05097673691400575</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5728095151450463</v>
+        <v>0.647283551673451</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001261112784405443</v>
+        <v>0.02517200458172279</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01219226281898628</v>
+        <v>0.02708690907853185</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06627001953922995</v>
+        <v>0.980204182334329</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8587688240912715</v>
+        <v>0.8727927999696086</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.002619393166512625</v>
+        <v>0.002376191031268984</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001681036172734915</v>
+        <v>0.002102364086446773</v>
       </c>
       <c r="S26" t="n">
-        <v>85.12459897263157</v>
+        <v>82.8434126212381</v>
       </c>
       <c r="T26" t="n">
-        <v>77.96390583916985</v>
+        <v>78.04920373127342</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1039688394855485</v>
+        <v>0.1039486673471002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9843028494704811</v>
+        <v>0.9894052687123103</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00896639863540212</v>
+        <v>0.9594849146154913</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02464682559890058</v>
+        <v>0.452152021047157</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5039953059261527</v>
+        <v>0.01094454085364249</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05752858335914401</v>
+        <v>0.5486180024703778</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1400903066231257</v>
+        <v>0.3056193702766177</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2390225037144968</v>
+        <v>0.5932063206080286</v>
       </c>
       <c r="H27" t="n">
-        <v>2.329593451315357e-05</v>
+        <v>0.0009474776634761102</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001695816878428302</v>
+        <v>2.046297127070955e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01134801852565351</v>
+        <v>0.000409850779985986</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9638720792159876</v>
+        <v>0.2242062439704249</v>
       </c>
       <c r="L27" t="n">
-        <v>0.224189979998721</v>
+        <v>0.668141738515153</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07031800161410112</v>
+        <v>0.4615717211929785</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1912431313911393</v>
+        <v>0.9642079087381166</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6330843613712867</v>
+        <v>0.9987498363959928</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0356285029631305</v>
+        <v>0.9997305094391499</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.002820174685562601</v>
+        <v>0.001635453573886332</v>
       </c>
       <c r="R27" t="n">
-        <v>0.001559940767416932</v>
+        <v>0.001557381747064063</v>
       </c>
       <c r="S27" t="n">
-        <v>84.70586684333578</v>
+        <v>87.72624008747016</v>
       </c>
       <c r="T27" t="n">
-        <v>78.10457433972007</v>
+        <v>78.80001472204837</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1043564046549854</v>
+        <v>0.1039861319820233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8949150581743913</v>
+        <v>0.9808532372810108</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004394195859712069</v>
+        <v>0.1494383133910072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03539968121210992</v>
+        <v>0.8986987620779372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1859179790011718</v>
+        <v>0.3679057239311467</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1021115271193095</v>
+        <v>0.1829890472184471</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1694004934251556</v>
+        <v>0.457377135895202</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05937319755251677</v>
+        <v>0.2337718484874825</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0001085639579935333</v>
+        <v>0.000865118200073229</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001698752663362283</v>
+        <v>4.588415298406327e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0009528384597815983</v>
+        <v>0.000475665550661304</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07530255694011745</v>
+        <v>0.1638661051594896</v>
       </c>
       <c r="L28" t="n">
-        <v>0.15196780755518</v>
+        <v>0.9639791374978209</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003034153393332954</v>
+        <v>0.02555054414117464</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02895126840354414</v>
+        <v>0.9575823683068108</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6616759077129796</v>
+        <v>0.6325229740192313</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8744204291502935</v>
+        <v>0.8731030864858845</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002984961731190562</v>
+        <v>0.001887878568717562</v>
       </c>
       <c r="R28" t="n">
-        <v>0.00157085903716579</v>
+        <v>0.001634890792093902</v>
       </c>
       <c r="S28" t="n">
-        <v>84.91795801218497</v>
+        <v>86.05189935028601</v>
       </c>
       <c r="T28" t="n">
-        <v>78.01906962557493</v>
+        <v>78.26305782715596</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1039803819917864</v>
+        <v>0.1039864412091027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9683016864986975</v>
+        <v>0.9840265637180935</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3888106141596712</v>
+        <v>0.01667401387788382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1537055592658213</v>
+        <v>0.4512436744487576</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8531813802590829</v>
+        <v>0.9154493152831851</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9205986573203574</v>
+        <v>0.7948468312943053</v>
       </c>
       <c r="F29" t="n">
-        <v>0.312783726934149</v>
+        <v>0.8063924690178785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5466640039961302</v>
+        <v>0.2230127861267106</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002070841971495306</v>
+        <v>0.004022234627605257</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0006890807542114588</v>
+        <v>0.01246638587183924</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0004165031783677822</v>
+        <v>0.002261344334170353</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1693958419754606</v>
+        <v>0.1193817127059255</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9563430267944419</v>
+        <v>0.6493352947234735</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003620380920041163</v>
+        <v>0.000211776108067975</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7130860638587915</v>
+        <v>0.2480826592381941</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7029604922145055</v>
+        <v>0.7129233179896969</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7885108799278145</v>
+        <v>0.01179276689633302</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.00199696579028581</v>
+        <v>0.002451067303617869</v>
       </c>
       <c r="R29" t="n">
-        <v>0.001850189829580971</v>
+        <v>0.001886582584000646</v>
       </c>
       <c r="S29" t="n">
-        <v>84.02205698829901</v>
+        <v>82.59162979092062</v>
       </c>
       <c r="T29" t="n">
-        <v>78.67549239293749</v>
+        <v>78.24432722941303</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1040516991063317</v>
+        <v>0.1046203282774881</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9851719710398779</v>
+        <v>0.9399367599324121</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2129196890401692</v>
+        <v>0.6794707840026594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1537055592658213</v>
+        <v>0.869569115225806</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8531813802590829</v>
+        <v>0.853819059642396</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8070509989568092</v>
+        <v>0.8628561138506943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.312783726934149</v>
+        <v>0.3146563374894305</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5466640039961302</v>
+        <v>0.2375393930950447</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001800770660153648</v>
+        <v>4.094688645396583e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000455950837226998</v>
+        <v>0.01210634720788398</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0004174056118739012</v>
+        <v>0.0004250829568791299</v>
       </c>
       <c r="K30" t="n">
-        <v>0.08030226670438684</v>
+        <v>0.9803300283223774</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6554999183208543</v>
+        <v>0.7914370592901521</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003620380920041163</v>
+        <v>0.01226319356629102</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4836566322983653</v>
+        <v>0.4953182615878826</v>
       </c>
       <c r="O30" t="n">
-        <v>0.7029604922145055</v>
+        <v>0.9893087901155302</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7885108799278145</v>
+        <v>0.8282848071019062</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002288708607779055</v>
+        <v>0.002271071869311625</v>
       </c>
       <c r="R30" t="n">
-        <v>0.001813854110741629</v>
+        <v>0.001952310388053163</v>
       </c>
       <c r="S30" t="n">
-        <v>83.04448793285472</v>
+        <v>83.23113695910583</v>
       </c>
       <c r="T30" t="n">
-        <v>78.41260334544236</v>
+        <v>78.52069040301082</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1039741816790541</v>
+        <v>0.1043942199162417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9222391956280189</v>
+        <v>0.9335864973935858</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6433751981580145</v>
+        <v>0.6003317212387739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.153473067502238</v>
+        <v>0.893047542599971</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3102116869898799</v>
+        <v>0.4583459634211433</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8276789395137265</v>
+        <v>0.6064987930640845</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7549058795407079</v>
+        <v>0.002590594614366559</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5895716514378161</v>
+        <v>0.2242906850982786</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001363388993830349</v>
+        <v>0.003844219846189861</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004566307835469454</v>
+        <v>0.0002202234159049297</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0002266703127211578</v>
+        <v>0.001530220829024629</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9810127981935181</v>
+        <v>0.14382821532334</v>
       </c>
       <c r="L31" t="n">
-        <v>0.990395768668378</v>
+        <v>0.5743219060176714</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1493876437844732</v>
+        <v>0.01108401452262228</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9994412530445664</v>
+        <v>0.521860641214911</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6730130697871992</v>
+        <v>0.6917384730279205</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9151843559879885</v>
+        <v>0.2772042644373685</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0016443510757737</v>
+        <v>0.002345328557092301</v>
       </c>
       <c r="R31" t="n">
-        <v>0.001657444425264202</v>
+        <v>0.001712336025849732</v>
       </c>
       <c r="S31" t="n">
-        <v>86.65423891211073</v>
+        <v>84.16201926137215</v>
       </c>
       <c r="T31" t="n">
-        <v>78.92736158263568</v>
+        <v>78.33461343532944</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1041604977534546</v>
+        <v>0.1041400054044515</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9994089522639454</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.00010196897517009</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0007876495062464756</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3180044986930302</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0395574832987507</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0002236885433364505</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04844500947149113</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.403179144886368e-06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.153513632817888e-05</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0003086728743766581</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1863362042980146</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9996282708507295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4733087773776704</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9997204259384286</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01168510857309911</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0008550017918343225</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.001789226485960849</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.001545978639057962</v>
+      </c>
+      <c r="S32" t="n">
+        <v>86.47441625565079</v>
+      </c>
+      <c r="T32" t="n">
+        <v>78.5573052489685</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.1039479587721168</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.9993819958050022</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.613609365405743e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0001345615290122544</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3729663695759401</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03641959170961602</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001870178413351626</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04187616523268609</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.879380454100068e-05</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.256201930363497e-05</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0001091324881095949</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1791208184938427</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9998874415803256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.4761722624973989</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.9999234263864126</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01050322560143743</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.002315814835642106</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.001804088339593905</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.001544852661821517</v>
+      </c>
+      <c r="S33" t="n">
+        <v>86.39621041034162</v>
+      </c>
+      <c r="T33" t="n">
+        <v>78.58385396984031</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1039435022973405</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9998301968565269</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.283781994175547e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.000187600336223705</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3409763854018835</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01069360560798067</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000297256496430255</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04058349936109946</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0001491600788868105</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.893932708796185e-05</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.000149930030468069</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1852737103023274</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9965409002423824</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4731938849650255</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.9996184705057819</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01157365821548057</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.04662271864412745</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.001815875481120836</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.001544311956213829</v>
+      </c>
+      <c r="S34" t="n">
+        <v>86.45652055375611</v>
+      </c>
+      <c r="T34" t="n">
+        <v>78.53684414107981</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.1039474118513626</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.9999441567310677</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9399772745313573</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.003189358412721124</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1378629320131892</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4808073611606798</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000561125180601699</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2628074549352167</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0001549080620958423</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.900792673855205e-05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0001368612576407127</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1984877096059406</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9993391520709206</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4155803074881532</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.9995748620176107</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02846561516911305</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.9669526963904556</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.001571900899685668</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.001549016237640823</v>
+      </c>
+      <c r="S35" t="n">
+        <v>86.74654933541456</v>
+      </c>
+      <c r="T35" t="n">
+        <v>78.86082075867077</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1039501701118504</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9994955051818242</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.896133996625603e-06</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.000133651051080731</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2897496662712309</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.07357897939287122</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.847598014840994e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02404879691108828</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.237625737831583e-06</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.830464335725816e-05</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.000141790484727111</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1884431040030241</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9967970924096867</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4735194002811968</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.999882372275672</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.009038693245001353</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.001976066625299071</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.001759833945626801</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.001548107998058781</v>
+      </c>
+      <c r="S36" t="n">
+        <v>86.49856116211046</v>
+      </c>
+      <c r="T36" t="n">
+        <v>78.58014375110183</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1039418412578921</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9999441567310677</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9081358371552325</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1291477589888042</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1378629320131892</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5124614407327353</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0005321111994200107</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2556574334418933</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.563008566345464e-05</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.000105810173566885</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000137118424294182</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.198101806630803</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9993621062886863</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3896520914455654</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.999572725616875</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.007143276801382829</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9759391002416089</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.001569120244475531</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.001549920584612674</v>
+      </c>
+      <c r="S37" t="n">
+        <v>86.72566394855851</v>
+      </c>
+      <c r="T37" t="n">
+        <v>78.86761645046542</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1039457465875005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.999946381461748</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9092478553908622</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.002750183632761305</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1374656111708299</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5174565804219633</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0001314371901863615</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3508773759733519</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0001520671851083171</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.000105810173566885</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0001889451493088312</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2235752831868427</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9818451547663735</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4197757515166796</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.9995730621730595</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01154188875619682</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.9877145560684486</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.001568521562897832</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.001549328523830577</v>
+      </c>
+      <c r="S38" t="n">
+        <v>86.7506108497974</v>
+      </c>
+      <c r="T38" t="n">
+        <v>78.90543142143224</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.1039522243033961</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9998201994303499</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.876632866159752e-05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0007763232984756227</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.3481107628859609</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.029294559890852</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0003183068231475567</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08431348183071544</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.569573702280601e-06</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.628166185822887e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.000142908315224104</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1859658872260284</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9999068285610225</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.477123375996782</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.9997413820860052</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0106460934856318</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0005061778203542222</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.001803129564218056</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.00154492246074811</v>
+      </c>
+      <c r="S39" t="n">
+        <v>86.43611604693092</v>
+      </c>
+      <c r="T39" t="n">
+        <v>78.5636116471895</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.1039425672937853</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999310915127723</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.433937357008242e-05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0003123093226068243</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5570528394026341</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.005486647604179102</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.002510953855463783</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0401658491675364</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.749935388533239e-05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.688376418589632e-05</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0001482560047438595</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.186313120193408</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9995770129735224</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4373611462452124</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9997979668183543</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.01401637078477742</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.002750930404107341</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.001895454943778043</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.001538644979015372</v>
+      </c>
+      <c r="S40" t="n">
+        <v>86.19176345218258</v>
+      </c>
+      <c r="T40" t="n">
+        <v>78.61691917742957</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1039450064702285</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9988877239283819</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.139711708430669e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.301365811102466e-05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2751781540263381</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.05375154188889372</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0002807227172655501</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03194743049273382</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.721112483702623e-05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.903396556814673e-06</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0001632653814765487</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.186304881030203</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9962173184452117</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4669142090732101</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9996167563337498</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.003129215492538515</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.002247099080964256</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.001772365011977771</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.001547233081662647</v>
+      </c>
+      <c r="S41" t="n">
+        <v>86.52915406479194</v>
+      </c>
+      <c r="T41" t="n">
+        <v>78.54679947356685</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1039444584229639</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9993945548508986</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0001007730418836303</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0002120295560510373</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4273426591978635</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.001718587592956337</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0001595130565108859</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04281325712769436</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.500746954517739e-05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.573938335841035e-05</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.000142943636893037</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2265816181123703</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9949366100875831</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.433923400224222</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.9997030704343267</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.00826142439482167</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.005063886185537258</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.001847562534973825</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.001541844976498024</v>
+      </c>
+      <c r="S42" t="n">
+        <v>86.31966743649711</v>
+      </c>
+      <c r="T42" t="n">
+        <v>78.54246478215623</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1039443384496162</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.999987747320381</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0001017015138668689</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0001358671213149122</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5117741597987489</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.002322415538458867</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.487167381502961e-05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0004391164519761959</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.364821171134827e-05</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001099688633795932</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0001524778649034625</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2130374739697342</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9997731390281319</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4388652369059926</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9997198106304166</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.001173572119405455</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.002806854630623534</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.001877658376170959</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.001539532123660814</v>
+      </c>
+      <c r="S43" t="n">
+        <v>86.22845113310936</v>
+      </c>
+      <c r="T43" t="n">
+        <v>78.59185609602071</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.1039462388725049</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.9997576840905384</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.00048394368347161</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0001456531269723485</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3963457489832504</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.008794414603550247</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0001323713899069596</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03912358860510865</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.740339988543508e-05</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.283424089980185e-06</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0001318164149297847</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2513464855347027</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9999296213343638</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4529979002861982</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.9996104243422043</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.005323855922896492</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0004314692708065823</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.001831505904611865</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.001542889345542578</v>
+      </c>
+      <c r="S44" t="n">
+        <v>86.36673000592765</v>
+      </c>
+      <c r="T44" t="n">
+        <v>78.54872884049583</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.1039425591265856</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.9999315722108016</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9.620261787185199e-05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0003121849196281116</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3485999449781029</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0190366450643905</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0003310002095264683</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.08790597733334596</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.12332075487428e-05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.005464155334714e-05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0001483036480265649</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1863275917855212</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.999669534960018</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4371600523657449</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9997172532397228</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01070266278893266</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.001993647705218142</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.001812499890448064</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.001544400316344735</v>
+      </c>
+      <c r="S45" t="n">
+        <v>86.42190248099695</v>
+      </c>
+      <c r="T45" t="n">
+        <v>78.52359294574197</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.1039438329281157</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9999311112819848</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.355876658450316e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0001469638235260904</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5861759638529963</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.00473524889963743</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0020899179925542</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0833093218801674</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.122504851455729e-05</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.921253275598338e-06</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0001323926210366661</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1035116048645845</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9995855923292006</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.43652456609515</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9996108955626379</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.005370900435534787</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.03151357911440959</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.001910274140843214</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.001537990318796263</v>
+      </c>
+      <c r="S46" t="n">
+        <v>86.16779170739336</v>
+      </c>
+      <c r="T46" t="n">
+        <v>78.63119873570594</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.1039422211734933</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9999288919459168</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9.315597841613258e-05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0002621746258503071</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5596744913713653</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0004067108252753223</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.975169797794045e-05</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006226480203621543</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.125764058990324e-05</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.883658580955057e-06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0001467534361767787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.134121418238815</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9924321112693938</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.3319640957935904</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.9997197080752568</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.007981056339748285</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.008824310703521517</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.001908325867296819</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.001538260645845474</v>
+      </c>
+      <c r="S47" t="n">
+        <v>86.07401127556815</v>
+      </c>
+      <c r="T47" t="n">
+        <v>78.52425708304835</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.1039430071960603</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9997636323766272</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.41357430684823e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0001296495740560904</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3725018259077884</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.002499598286435461</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0004678197369399128</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.04281193401802469</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.613770322057698e-05</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.212998442445867e-05</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0001091324881095949</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1794019272791117</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9995896327214825</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.4732454225108663</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9996180782980446</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01028667473417429</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.002190997266760519</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.001829542591498166</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001543161090998752</v>
+      </c>
+      <c r="S48" t="n">
+        <v>86.41695189374217</v>
+      </c>
+      <c r="T48" t="n">
+        <v>78.54407048023202</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.1039437428072911</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9989142079156643</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0001095492889238279</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.129553141684386e-05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2927768505873497</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.02927943689269933</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.123586349940865e-05</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001808580513765024</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.039733600169601e-05</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.618033627338584e-05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0001335286304754742</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1859833354682852</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.992889256414482</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4790847054794853</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.9996091390200309</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.006285306167929985</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.001840357513525355</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.001792947609514587</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.001545878210199876</v>
+      </c>
+      <c r="S49" t="n">
+        <v>86.51878639881006</v>
+      </c>
+      <c r="T49" t="n">
+        <v>78.53646956072271</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.1039423983172392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.9999441567310677</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9119986812268842</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.003314163867052355</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1378629320131892</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5124614407327353</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0005462543020823879</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2556574334418933</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0001524859398579808</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.000105810173566885</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0001368612576407127</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.03144790143346982</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9993621062886863</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.3900036996761724</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.999572725616875</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.02846561516911305</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9757068174408551</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.001569116621591615</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.00154942965905899</v>
+      </c>
+      <c r="S50" t="n">
+        <v>86.73889879191869</v>
+      </c>
+      <c r="T50" t="n">
+        <v>78.86944177473325</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.1039503067012252</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.9999441567310677</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9081131498757354</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1197131352735225</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1378629320131892</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5124614407327353</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0005321111994200107</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2556574334418933</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.161039950610572e-05</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.000105810173566885</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.000137118424294182</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.198101806630803</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9993621062886863</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3900036996761724</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.999572725616875</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.007143276801382829</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.9759391002416089</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.001569091140934062</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.001549850592936222</v>
+      </c>
+      <c r="S51" t="n">
+        <v>86.72597041577329</v>
+      </c>
+      <c r="T51" t="n">
+        <v>78.86819153020436</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.1039459637223623</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.999733878066558</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.001605636750241185</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0006993791446683404</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.3470562798501574</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01072860122058504</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0004586378977261769</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02074291404628184</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8.759899535085137e-05</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.181430796513867e-05</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0001419959155925877</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1873586836162617</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.996540405627738</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4800765510294576</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.9996183548297557</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01064050156708575</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.004976209586470868</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.001817185471375715</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.001544182391872926</v>
+      </c>
+      <c r="S52" t="n">
+        <v>86.45016957859806</v>
+      </c>
+      <c r="T52" t="n">
+        <v>78.54468907547349</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1039449878828085</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.9994171892208097</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.487475070021735e-05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.257558652733336e-05</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4786730981802587</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.005350913131044941</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0001419622919833293</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.007978511149563125</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9.629864481587137e-06</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.15221105654124e-05</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.281497304994006e-05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2024462685082599</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9960363263473567</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4388591862715693</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9994896857649679</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0004451727672567371</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.001971749028150643</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.001862311231599944</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.001540621855383015</v>
+      </c>
+      <c r="S53" t="n">
+        <v>86.25756436578995</v>
+      </c>
+      <c r="T53" t="n">
+        <v>78.57637554159849</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.1039370507728096</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9993994738460907</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00010196897517009</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0007876495062464756</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.289755994787003</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.03941887745841597</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0002236885433364505</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0397961617842149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.681603607439556e-06</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.153513632817888e-05</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0003252255957218554</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1863658196893186</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9996282708507295</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4733087773776704</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9996182657380976</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01168510857309911</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0019546937125205</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.001784442344585951</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.001546411975141064</v>
+      </c>
+      <c r="S54" t="n">
+        <v>86.52026516030372</v>
+      </c>
+      <c r="T54" t="n">
+        <v>78.54301166577245</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.1039486836814997</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.9997702148467521</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9558980336511141</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.82226533799539e-05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1914543588231994</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5855945036750919</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.000519570025792512</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2581621880286448</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.000167464564183928</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.029234611263029e-06</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0001422377304573065</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.733016221073795</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9999873775164974</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3627618909934648</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.999979928662645</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.04497182695246311</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9495118772398061</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.001559813357435222</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.001554170881328455</v>
+      </c>
+      <c r="S55" t="n">
+        <v>86.63721203889723</v>
+      </c>
+      <c r="T55" t="n">
+        <v>78.94481991637944</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.1039475036619526</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.9998267259134818</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.262954415474373e-05</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0001715446856635743</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3182263244936437</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.05187176209680125</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.007257087478906743</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04809536173576984</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0001721661216731252</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.639432353148449e-05</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0001341039245661061</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2010750795695519</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.9999150437330609</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.4597211531901072</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.9997212618898429</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0180238303040741</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0008324870726661157</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.001780409466640078</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.001546666299966226</v>
+      </c>
+      <c r="S56" t="n">
+        <v>86.46326571465816</v>
+      </c>
+      <c r="T56" t="n">
+        <v>78.56053733865599</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.1039479706004751</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.9993994738460907</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9.969449115909676e-05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0001296696399909409</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.289755994787003</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.03751299681850684</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.748293194441537e-05</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.04021112772024277</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.681603607439556e-06</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.846007282471914e-05</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0003252255957218554</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1863658196893186</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.998704907667796</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.4733087773776704</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.9996181528911612</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01024554082908688</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.001954918145790936</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.001785938595417299</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.00154628341744818</v>
+      </c>
+      <c r="S57" t="n">
+        <v>86.52051321173883</v>
+      </c>
+      <c r="T57" t="n">
+        <v>78.54093134790929</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.1039485744099999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.9999096710912135</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9158900382418633</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01440051480136754</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2257271131528032</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5972971541480739</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01223083028944457</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.2605708346202097</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0001652843242485117</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.105722756718714e-05</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0001513263515042718</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.7597499867565521</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9999922386863649</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3615436070066473</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.999987586948454</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.04305391412611523</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8735397519261794</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.001557437002006864</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.001558448440074993</v>
+      </c>
+      <c r="S58" t="n">
+        <v>86.56779481487413</v>
+      </c>
+      <c r="T58" t="n">
+        <v>78.9785241493594</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.1039490835926588</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.9999301487936184</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.041873515280219e-05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0007652011818293951</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4355200542666794</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01835432772853848</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0003311862997661469</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.08781288557603067</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.088585160625688e-05</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0001123468404171904</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0001420254022789762</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1863275974337172</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9998356898623062</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.4348944536387054</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9997850613312101</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0105994628057672</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.0004930911443207756</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.001836844982379197</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.001542498386888757</v>
+      </c>
+      <c r="S59" t="n">
+        <v>86.29990276574685</v>
+      </c>
+      <c r="T59" t="n">
+        <v>78.56539422220897</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.1039465804867556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.9999106141823311</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.479911074329815e-05</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0001490065487736764</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3717626468520251</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01919391984042183</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0004694258135525136</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02038605113936588</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9.216540386442307e-06</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.280060688940131e-05</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0001645788047101497</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.156265254687079</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.9996977737213313</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4733003781534689</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.9996167392729586</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01068809237291718</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.0049272623962136</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.001816624653082735</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.001543941334135319</v>
+      </c>
+      <c r="S60" t="n">
+        <v>86.40715447626408</v>
+      </c>
+      <c r="T60" t="n">
+        <v>78.56200206340883</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1039433507817041</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9995027901107252</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7.233346383146073e-06</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0001338176179257409</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2897873699320108</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.03344427314129602</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.477554160119701e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.002468579884391597</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8.64616662339751e-05</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.033838335430447e-05</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0001293563880885706</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1548681498739932</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9961225262713403</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.4698707383933858</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9999727258877334</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.007867218989291314</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.0008476206693178034</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.001789194053522474</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.00154608451228001</v>
+      </c>
+      <c r="S61" t="n">
+        <v>86.5193668030239</v>
+      </c>
+      <c r="T61" t="n">
+        <v>78.53350765367465</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.1039440725931836</v>
       </c>
     </row>
   </sheetData>
